--- a/artfynd/A 20696-2019.xlsx
+++ b/artfynd/A 20696-2019.xlsx
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87534675</v>
+        <v>87535081</v>
       </c>
       <c r="B3" t="n">
-        <v>96356</v>
+        <v>103178</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219847</v>
+        <v>221141</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>693482.7895264921</v>
+        <v>693869.236562217</v>
       </c>
       <c r="R3" t="n">
-        <v>6685726.906257272</v>
+        <v>6685521.203787691</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt, dikesbotten och ytterslänt.</t>
+          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -936,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87535081</v>
+        <v>87535080</v>
       </c>
       <c r="B4" t="n">
-        <v>103178</v>
+        <v>96313</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,23 +952,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221141</v>
+        <v>223609</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Vanlig skogsknipprot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Primula veris</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>L.</t>
-        </is>
-      </c>
+          <t>Epipactis helleborine subsp. helleborine</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>2</t>
@@ -976,7 +972,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -985,10 +981,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>693869.236562217</v>
+        <v>693933.2341120628</v>
       </c>
       <c r="R4" t="n">
-        <v>6685521.203787691</v>
+        <v>6685507.204237238</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1044,6 +1040,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1066,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87535080</v>
+        <v>87534605</v>
       </c>
       <c r="B5" t="n">
-        <v>96313</v>
+        <v>96356</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1082,22 +1079,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>223609</v>
+        <v>219847</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vanlig skogsknipprot</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Epipactis helleborine subsp. helleborine</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Neottia ovata</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) Buff. &amp; Fingerh.</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1111,10 +1112,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>693933.2341120628</v>
+        <v>693940.7630101059</v>
       </c>
       <c r="R5" t="n">
-        <v>6685507.204237238</v>
+        <v>6685506.11301556</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1161,7 +1162,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt.</t>
+          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt, dikesbotten och ytterslänt.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1170,7 +1171,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87534605</v>
+        <v>87534816</v>
       </c>
       <c r="B6" t="n">
         <v>96356</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1242,10 +1242,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>693940.7630101059</v>
+        <v>693928.1621041195</v>
       </c>
       <c r="R6" t="n">
-        <v>6685506.11301556</v>
+        <v>6685508.923384908</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt, dikesbotten och ytterslänt.</t>
+          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1323,7 +1323,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87534816</v>
+        <v>87534675</v>
       </c>
       <c r="B7" t="n">
         <v>96356</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>693928.1621041195</v>
+        <v>693482.7895264921</v>
       </c>
       <c r="R7" t="n">
-        <v>6685508.923384908</v>
+        <v>6685726.906257272</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt.</t>
+          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt, dikesbotten och ytterslänt.</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 20696-2019.xlsx
+++ b/artfynd/A 20696-2019.xlsx
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87535081</v>
+        <v>87534675</v>
       </c>
       <c r="B3" t="n">
-        <v>103178</v>
+        <v>96356</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221141</v>
+        <v>219847</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>693869.236562217</v>
+        <v>693482.7895264921</v>
       </c>
       <c r="R3" t="n">
-        <v>6685521.203787691</v>
+        <v>6685726.906257272</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt.</t>
+          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt, dikesbotten och ytterslänt.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -936,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87535080</v>
+        <v>87535081</v>
       </c>
       <c r="B4" t="n">
-        <v>96313</v>
+        <v>103178</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,19 +952,23 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223609</v>
+        <v>221141</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vanlig skogsknipprot</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Epipactis helleborine subsp. helleborine</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Primula veris</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>2</t>
@@ -972,7 +976,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -981,10 +985,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>693933.2341120628</v>
+        <v>693869.236562217</v>
       </c>
       <c r="R4" t="n">
-        <v>6685507.204237238</v>
+        <v>6685521.203787691</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1040,7 +1044,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1063,10 +1066,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87534605</v>
+        <v>87535080</v>
       </c>
       <c r="B5" t="n">
-        <v>96356</v>
+        <v>96313</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,26 +1082,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219847</v>
+        <v>223609</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Vanlig skogsknipprot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
-        </is>
-      </c>
+          <t>Epipactis helleborine subsp. helleborine</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1112,10 +1111,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>693940.7630101059</v>
+        <v>693933.2341120628</v>
       </c>
       <c r="R5" t="n">
-        <v>6685506.11301556</v>
+        <v>6685507.204237238</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1162,7 +1161,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt, dikesbotten och ytterslänt.</t>
+          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1171,6 +1170,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87534816</v>
+        <v>87534605</v>
       </c>
       <c r="B6" t="n">
         <v>96356</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1242,10 +1242,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>693928.1621041195</v>
+        <v>693940.7630101059</v>
       </c>
       <c r="R6" t="n">
-        <v>6685508.923384908</v>
+        <v>6685506.11301556</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt.</t>
+          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt, dikesbotten och ytterslänt.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1323,7 +1323,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87534675</v>
+        <v>87534816</v>
       </c>
       <c r="B7" t="n">
         <v>96356</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>693482.7895264921</v>
+        <v>693928.1621041195</v>
       </c>
       <c r="R7" t="n">
-        <v>6685726.906257272</v>
+        <v>6685508.923384908</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt, dikesbotten och ytterslänt.</t>
+          <t>Förekomst längs väg nr 1120 S om vägbanan i innerslänt.</t>
         </is>
       </c>
       <c r="AD7" t="b">
